--- a/YESInteractiveStudio/InteractiveStudio/bin/Lang/InteractiveStudio.ZH_CN.xlsx
+++ b/YESInteractiveStudio/InteractiveStudio/bin/Lang/InteractiveStudio.ZH_CN.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\YESInteractiveStudio\InteractiveStudio\bin\Lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3146C172-0868-401D-A753-E5BCFA001DDD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2FB179-12BC-4E02-93C3-0EC095DB7232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1725" windowWidth="21600" windowHeight="13605" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
+    <workbookView xWindow="14070" yWindow="1590" windowWidth="21600" windowHeight="13605" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="217">
   <si>
     <t>Port</t>
   </si>
@@ -739,6 +739,51 @@
   </si>
   <si>
     <t>精度设置</t>
+  </si>
+  <si>
+    <t>Mobile control</t>
+  </si>
+  <si>
+    <t>手机控制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>● Enter any address in your phone's browser</t>
+  </si>
+  <si>
+    <t>Web server</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>● Or scan QR code</t>
+  </si>
+  <si>
+    <t>MobileControlForm</t>
+  </si>
+  <si>
+    <t>● 或者扫描二维码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>● 在手机浏览器输入任一地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关闭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开启</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1129,8 +1174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F597DAC-B72D-418A-8EB1-77DE87FB54EF}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="C111" sqref="C111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2286,7 +2331,81 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C105" s="3"/>
+      <c r="A105" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B108" t="s">
+        <v>19</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="4"/>

--- a/YESInteractiveStudio/InteractiveStudio/bin/Lang/InteractiveStudio.ZH_CN.xlsx
+++ b/YESInteractiveStudio/InteractiveStudio/bin/Lang/InteractiveStudio.ZH_CN.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\YESInteractiveStudio\InteractiveStudio\bin\Lang\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2FB179-12BC-4E02-93C3-0EC095DB7232}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9525ABBF-E969-46A4-A8EE-64195BBF14EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14070" yWindow="1590" windowWidth="21600" windowHeight="13605" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
+    <workbookView xWindow="1920" yWindow="2505" windowWidth="21600" windowHeight="13605" xr2:uid="{755D00F2-21E9-4B2D-BB73-94DA7EC8EB27}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="221">
   <si>
     <t>Port</t>
   </si>
@@ -784,6 +784,20 @@
   <si>
     <t>开启</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fail to Get HotBackUp</t>
+  </si>
+  <si>
+    <t>获取热备份失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>热备份的主从发送卡需要为同一发送卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The Slave Sender must be the same as the Master Sender in HotBackUp</t>
   </si>
 </sst>
 </file>
@@ -1174,8 +1188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F597DAC-B72D-418A-8EB1-77DE87FB54EF}">
   <dimension ref="A1:C131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A113" sqref="A113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2400,11 +2414,33 @@
       <c r="A111" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" t="s">
         <v>19</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="131" spans="1:1" x14ac:dyDescent="0.2">
